--- a/ExcelCompile/Excel/EntitySpawn.xlsx
+++ b/ExcelCompile/Excel/EntitySpawn.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F0134-2CFC-4AFA-8313-A65A2903E039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017B9B57-5FAA-4184-81DF-D871BFF1C76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,36 @@
   </si>
   <si>
     <t>tank02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -556,11 +586,11 @@
     <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
     <col min="6" max="7" width="22.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="10" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="12" width="19.375" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -588,8 +618,17 @@
       <c r="I1" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -617,8 +656,17 @@
       <c r="I2" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -646,8 +694,17 @@
       <c r="I3" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -676,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -705,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -734,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -763,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -792,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -821,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -850,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -879,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -908,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -937,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -966,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -995,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
